--- a/Documents/Files/Skill.xlsx
+++ b/Documents/Files/Skill.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sparta_Coding_Club\TeamProject\TextRPG_TeamProject2nd\TextRPG_TeamProject2nd\Documents\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EA940C-6C2D-469C-9FC2-F569B216559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28695" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -31,27 +40,303 @@
     <t>COST</t>
   </si>
   <si>
-    <t>강타</t>
-  </si>
-  <si>
-    <t>강한공격</t>
+    <t>휘두르기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기를 한 손으로 쥐고 휘두른다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내리찍기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단숨에 뛰어들어 위에서 아래로 내려찍는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올려치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>질러찌르기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손을 강하게 뻗어서 찔러버린다. 명중률이 낮지만 위력이 높다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대방의 품 안으로 파고들어 턱을 노린다. 치명타 확률이 높지만 명중률이 낮다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍뭉베기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍뭉호통</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노동예찬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼 일족의 종족 특성. 자신의 땀을 닦아내어 자신의 노동을 치하한다. 방어력과 공격력이 상승한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 일족의 비기. 선조의 멍뭉소리를 재현해서 멍뭉한다. 적의 공격력과 명중률이 감소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 일족의 비기. 선조의 힘을 빌어서 적을 벤다. 선조가 멍뭉하기에, 적의 방어력이 감소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물어뜯기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력한 이빨으로 상대방을 물어뜯는다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 일족의 비기...는 아닌 그 무언가. '야옹'하고 외쳐서 자신을 고무시킨다. 급작스럽게 쓰기 좋은 회복 기술.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야옹소리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정한 야옹소리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아침의 땀 한 방울</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼 일족의 시례 행사. '노동에 대한 맹세' 32구절을 외친다. 그 자긍심으로 HP를 크게 회복하고 방어력이 상승한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햘퀴기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발톱을 이용해서 햘퀸다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이 일족의 비기. 자세를 정돈하고 턱을 곧게 들어 '야옹'하고 외친다. 정갈한 야옹소리에 HP가 회복된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하울링</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘을 향해서 울부짖는다. 자신의 명중률이 상승하고 상대방의 명중률이 감소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약초를 달여서 만든 회복약. 쓰디 쓰고 쓴데 씁다. 한 마디로 매우 쓰다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복약 G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복약에 벌꿀을 넣고 달인 약. 벌꿀을 넣었는데도 회복약 보다 더 쓰다. 분명 벌꿀 말고 다른 게 들어갔다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복약 GG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복약을 더욱 달인 약. 이번에는 대추야자를 넣었다. 제발 그만 좀 써져라.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복약 GGG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복약에 쑥을 넣고 극도로 달인 약. 이젠 고약이나 다름 없다. 이젠 너무 달다. 살려줘.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱돌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>널부러진 돌맹이와는 차원을 달리하는 레어 돌맹이. 맞으면 아프다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안에 인화성 액체가 들어있는 병. 왜인지는 몰라도 절대로 안깨진다. 액체는 거들 뿐이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유체박치기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임의 몸통 박치기. 중량 때문인지 아프다. 그 뿐이다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유체 풍차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점액 모으기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼트려진 점액을 모아 체력을 회복한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치유의 찬가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양서 12절을 읊는다. 이 구절은 생명에 대한 예찬이다. 그렇기에 HP를 소량 회복한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸톰을 쥐어짠 뒤 마치 풍차 날개 처럼 후드려친다. 사용 뒤 공격력이 감소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라루 슬라!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온 몸을 비틀어 압축한 뒤에 터트리는 기술. 극도로 높은 피해를 입히며, 모든 능력치가 크게 감소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬레루 슬리!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온 몸을 비틀며 몸의 형상을 정돈한다. 모든 능력치가 초기화된다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달의 이빨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양의 이빨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤의 이빨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달빛을 머금은 이빨으로 적을 문다. 상대의 방어력이 감소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛을 머금은 이빨으로 적을 문다. 자신의 공격력이 상승한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠을 머금은 이빨으로 적을 문다. 자신의 공격력이 상승하고 상대의 방어력이 감소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠 두르기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 주위를 어둠으로 두른다. 상대방의 명중률이 감소하고 자신의 회피율이 상승한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,36 +344,64 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -278,23 +591,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="7.140625" style="4"/>
+    <col min="4" max="4" width="54.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.140625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -314,27 +635,606 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>20.0</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>3.0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A3" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4">
+        <v>70</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="4">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4">
+        <v>150</v>
+      </c>
+      <c r="F7" s="4">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A8" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A11" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="4">
+        <v>40</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>3000</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>3001</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>3002</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="4">
+        <v>50</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A16" s="4">
+        <v>3003</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="4">
+        <v>3004</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="4">
+        <v>3010</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="4">
+        <v>25</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="4">
+        <v>3011</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4">
+        <v>140</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="4">
+        <v>3012</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4">
+        <v>350</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="4">
+        <v>4000</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>4001</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="4">
+        <v>4010</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="4">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="4">
+        <v>4011</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="4">
+        <v>5000</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4">
+        <v>45</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A26" s="4">
+        <v>5001</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="4">
+        <v>70</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="4">
+        <v>6000</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4">
+        <v>45</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="4">
+        <v>6001</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="4">
+        <v>70</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="4">
+        <v>6002</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="4">
+        <v>100</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="4">
+        <v>6003</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="4">
+        <v>150</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
+    <sortCondition ref="A1:A30"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/Files/Skill.xlsx
+++ b/Documents/Files/Skill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sparta_Coding_Club\TeamProject\TextRPG_TeamProject2nd\TextRPG_TeamProject2nd\Documents\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EA940C-6C2D-469C-9FC2-F569B216559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE4D832-DCB6-4425-8B20-EA08AAAC6528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-90" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="16110" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -92,10 +92,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>강아지 일족의 비기. 선조의 힘을 빌어서 적을 벤다. 선조가 멍뭉하기에, 적의 방어력이 감소한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>물어뜯기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,10 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>온 몸을 비틀어 압축한 뒤에 터트리는 기술. 극도로 높은 피해를 입히며, 모든 능력치가 크게 감소한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>슬레루 슬리!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -269,6 +261,14 @@
   </si>
   <si>
     <t>자신의 주위를 어둠으로 두른다. 상대방의 명중률이 감소하고 자신의 회피율이 상승한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 일족의 비기. 선조의 힘을 빌어서 적을 벤다. 선조가 멍뭉하기에 적의 방어력이 감소한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온 몸을 비틀어 압축한 뒤에 터트리는 기술. 극도로 높은 피해를 입히지만 모든 능력치가 크게 감소한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +605,7 @@
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -728,7 +728,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4">
         <v>25</v>
@@ -747,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4">
         <v>150</v>
@@ -769,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4">
         <v>25</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>17</v>
@@ -838,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="4">
         <v>40</v>
@@ -857,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="E12" s="4">
         <v>40</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E13" s="4">
         <v>45</v>
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="E14" s="4">
         <v>25</v>
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4">
         <v>50</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4">
         <v>50</v>
@@ -957,10 +957,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4">
         <v>45</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="4">
         <v>25</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4">
         <v>140</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E20" s="4">
         <v>350</v>
@@ -1037,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="E23" s="4">
         <v>40</v>
@@ -1097,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="E25" s="4">
         <v>45</v>
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E26" s="4">
         <v>70</v>
@@ -1157,10 +1157,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="E27" s="4">
         <v>45</v>
@@ -1177,10 +1177,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="E28" s="4">
         <v>70</v>
@@ -1197,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="E29" s="4">
         <v>100</v>
@@ -1217,10 +1217,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E30" s="4">
         <v>150</v>

--- a/Documents/Files/Skill.xlsx
+++ b/Documents/Files/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sparta_Coding_Club\TeamProject\TextRPG_TeamProject2nd\TextRPG_TeamProject2nd\Documents\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE4D832-DCB6-4425-8B20-EA08AAAC6528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B83B8FC-0B16-4C28-A6AB-5FA23FF1CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="16110" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -137,54 +137,6 @@
   </si>
   <si>
     <t>하늘을 향해서 울부짖는다. 자신의 명중률이 상승하고 상대방의 명중률이 감소한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복약</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약초를 달여서 만든 회복약. 쓰디 쓰고 쓴데 씁다. 한 마디로 매우 쓰다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복약 G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복약에 벌꿀을 넣고 달인 약. 벌꿀을 넣었는데도 회복약 보다 더 쓰다. 분명 벌꿀 말고 다른 게 들어갔다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복약 GG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복약을 더욱 달인 약. 이번에는 대추야자를 넣었다. 제발 그만 좀 써져라.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복약 GGG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복약에 쑥을 넣고 극도로 달인 약. 이젠 고약이나 다름 없다. 이젠 너무 달다. 살려줘.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>짱돌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>널부러진 돌맹이와는 차원을 달리하는 레어 돌맹이. 맞으면 아프다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염병</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안에 인화성 액체가 들어있는 병. 왜인지는 몰라도 절대로 안깨진다. 액체는 거들 뿐이다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -601,11 +553,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -728,7 +680,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4">
         <v>25</v>
@@ -857,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E12" s="4">
         <v>40</v>
@@ -917,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E15" s="4">
         <v>50</v>
@@ -937,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4">
         <v>50</v>
@@ -957,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E17" s="4">
         <v>45</v>
@@ -977,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4">
         <v>25</v>
@@ -997,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4">
         <v>140</v>
@@ -1017,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="E20" s="4">
         <v>350</v>
@@ -1057,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -1077,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E23" s="4">
         <v>40</v>
@@ -1097,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -1109,129 +1061,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="4">
-        <v>5000</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="4">
-        <v>45</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="4">
-        <v>5001</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="4">
-        <v>70</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="4">
-        <v>6000</v>
-      </c>
-      <c r="B27" s="4">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="4">
-        <v>45</v>
-      </c>
-      <c r="F27" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="4">
-        <v>6001</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="4">
-        <v>70</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="4">
-        <v>6002</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="4">
-        <v>100</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="4">
-        <v>6003</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="4">
-        <v>150</v>
-      </c>
-      <c r="F30" s="4">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F30">
-    <sortCondition ref="A1:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F24">
+    <sortCondition ref="A1:A24"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Files/Skill.xlsx
+++ b/Documents/Files/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sparta_Coding_Club\TeamProject\TextRPG_TeamProject2nd\TextRPG_TeamProject2nd\Documents\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B83B8FC-0B16-4C28-A6AB-5FA23FF1CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2FEC01-494A-4E20-B668-30340B77290E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="16080" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>손을 강하게 뻗어서 찔러버린다. 명중률이 낮지만 위력이 높다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상대방의 품 안으로 파고들어 턱을 노린다. 치명타 확률이 높지만 명중률이 낮다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -84,14 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>토끼 일족의 종족 특성. 자신의 땀을 닦아내어 자신의 노동을 치하한다. 방어력과 공격력이 상승한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강아지 일족의 비기. 선조의 멍뭉소리를 재현해서 멍뭉한다. 적의 공격력과 명중률이 감소한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>물어뜯기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -116,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>토끼 일족의 시례 행사. '노동에 대한 맹세' 32구절을 외친다. 그 자긍심으로 HP를 크게 회복하고 방어력이 상승한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>햘퀴기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -136,10 +120,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하늘을 향해서 울부짖는다. 자신의 명중률이 상승하고 상대방의 명중률이 감소한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유체박치기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -168,10 +148,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>몸톰을 쥐어짠 뒤 마치 풍차 날개 처럼 후드려친다. 사용 뒤 공격력이 감소한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>슬라루 슬라!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -180,10 +156,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>온 몸을 비틀며 몸의 형상을 정돈한다. 모든 능력치가 초기화된다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>달의 이빨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -196,31 +168,210 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>달빛을 머금은 이빨으로 적을 문다. 상대의 방어력이 감소한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛을 머금은 이빨으로 적을 문다. 자신의 공격력이 상승한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>어둠을 머금은 이빨으로 적을 문다. 자신의 공격력이 상승하고 상대의 방어력이 감소한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>어둠 두르기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자신의 주위를 어둠으로 두른다. 상대방의 명중률이 감소하고 자신의 회피율이 상승한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강아지 일족의 비기. 선조의 힘을 빌어서 적을 벤다. 선조가 멍뭉하기에 적의 방어력이 감소한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>온 몸을 비틀어 압축한 뒤에 터트리는 기술. 극도로 높은 피해를 입히지만 모든 능력치가 크게 감소한다.</t>
+    <t>손을 강하게 뻗어서 찔러버린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 일족의 비기. 선조의 힘을 빌어서 적을 벤다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지 일족의 비기. 선조의 멍뭉소리를 재현해서 멍뭉한다. 멍뭉의 긴장감으로 약간 회복한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼 일족의 종족 특성. 자신의 땀을 닦아내어 자신의 노동을 치하한다. 자신의 자긍심으로 약간 회복은 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼 일족의 시례 행사. '노동에 대한 맹세' 32구절을 외친다. 그 자긍심으로 HP를 크게 회복한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달빛을 머금은 이빨으로 적을 문다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>햇빛을 머금은 이빨으로 적을 문다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠을 머금은 이빨으로 적을 문다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몸톰을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쥐어짠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>뒤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>풍차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>처럼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후드려친다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온 몸을 비틀어 압축한 뒤에 터트리는 기술. 극도로 높은 피해를 입히는 초 강력 필살기.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘을 향해서 울부짖는다. 아무런 효과가 없다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 주위를 어둠으로 둘러, 체력을 대량으로 회복한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온 몸을 비틀며 몸의 형상을 정돈한다. 체력을 매우 크게 회복한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +379,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -290,6 +441,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -333,6 +497,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -557,7 +724,7 @@
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -638,7 +805,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
         <v>45</v>
@@ -659,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E5" s="4">
         <v>45</v>
@@ -677,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E6" s="4">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F6" s="4">
         <v>3</v>
@@ -699,16 +866,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="F7" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -721,10 +888,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="4">
         <v>25</v>
@@ -743,16 +910,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -765,16 +932,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -787,16 +954,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F11" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -809,10 +976,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4">
         <v>40</v>
@@ -829,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13" s="4">
         <v>45</v>
@@ -849,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4">
         <v>25</v>
@@ -869,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F15" s="4">
         <v>4</v>
@@ -889,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="4">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F16" s="4">
         <v>4</v>
@@ -909,16 +1076,16 @@
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F17" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
@@ -929,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E18" s="4">
         <v>25</v>
@@ -949,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="4">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="F19" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
@@ -969,16 +1136,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" s="4">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="F20" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
@@ -989,16 +1156,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E21" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
@@ -1009,16 +1176,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
@@ -1029,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E23" s="4">
         <v>40</v>
@@ -1049,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F24" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Files/Skill.xlsx
+++ b/Documents/Files/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sparta_Coding_Club\TeamProject\TextRPG_TeamProject2nd\TextRPG_TeamProject2nd\Documents\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2FEC01-494A-4E20-B668-30340B77290E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250E9572-DF8B-4205-9055-5443F20BA3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,11 +367,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자신의 주위를 어둠으로 둘러, 체력을 대량으로 회복한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>온 몸을 비틀며 몸의 형상을 정돈한다. 체력을 매우 크게 회복한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 주위를 어둠으로 둘러 체력을 대량으로 회복한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -724,7 +724,7 @@
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1179,7 +1179,7 @@
         <v>38</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4">
         <v>100</v>
@@ -1219,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="4">
         <v>70</v>
